--- a/2. Hardware PCB/REV_4.0/filtro/Project Outputs for filtro_rev4/Pick Place for filtro_rev4.xlsx
+++ b/2. Hardware PCB/REV_4.0/filtro/Project Outputs for filtro_rev4/Pick Place for filtro_rev4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\20190909 - 3phase_inverter\3phase_inverter\2. Hardware PCB\REV_4.0\filtro\Project Outputs for filtro_rev4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMORAIS\Desktop\3phase_inverter\2. Hardware PCB\REV_4.0\filtro\Project Outputs for filtro_rev4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Pick Place for filtro_rev4" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
   <si>
     <t>Altium Designer Pick and Place Locations</t>
   </si>
   <si>
-    <t>F:\Projects\20190909 - 3phase_inverter\3phase_inverter\2. Hardware PCB\REV_4.0\filtro\Project Outputs for filtro_rev4\Pick Place for filtro_rev4.csv</t>
+    <t>C:\Users\VMORAIS\Desktop\3phase_inverter\2. Hardware PCB\REV_4.0\filtro\Project Outputs for filtro_rev4\Pick Place for filtro_rev4.csv</t>
   </si>
   <si>
     <t>========================================================================================================================</t>
@@ -33,10 +33,10 @@
     <t>File Design Information:</t>
   </si>
   <si>
-    <t>Date:       11/03/20</t>
-  </si>
-  <si>
-    <t>Time:       11:55</t>
+    <t>Date:       08/05/20</t>
+  </si>
+  <si>
+    <t>Time:       19:47</t>
   </si>
   <si>
     <t>Revision:   Not in VersionControl</t>
@@ -75,229 +75,238 @@
     <t>LCSC PART #</t>
   </si>
   <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>P 2p 5mm</t>
+  </si>
+  <si>
+    <t>TopLayer</t>
+  </si>
+  <si>
+    <t>connector1x2_parafuso</t>
+  </si>
+  <si>
+    <t>3295.000</t>
+  </si>
+  <si>
+    <t>-130.000</t>
+  </si>
+  <si>
+    <t>Bloques de terminales de PCB de perfil estándar RS de 5,0 mm</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>3330.000</t>
+  </si>
+  <si>
+    <t>-3287.127</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>3315.000</t>
+  </si>
+  <si>
+    <t>-2092.127</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>3310.000</t>
+  </si>
+  <si>
+    <t>-780.276</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R 2.2 3W TH 5%</t>
+  </si>
+  <si>
+    <t>PWR_RESC_3W</t>
+  </si>
+  <si>
+    <t>1565.000</t>
+  </si>
+  <si>
+    <t>-3145.000</t>
+  </si>
+  <si>
+    <t>Resistencia TE Connectivity, de 2.2O ±5%, 3W, Serie ROX3S</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>-1860.000</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>-535.000</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C 2uF PPCap TH 630V</t>
+  </si>
+  <si>
+    <t>PWR_CAP_PP_8u</t>
+  </si>
+  <si>
+    <t>2405.000</t>
+  </si>
+  <si>
+    <t>-2945.000</t>
+  </si>
+  <si>
+    <t>Capacitores de película 2.0uF 630volts 10% 37.5mmL/S 1.0mmL/D</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>-1667.500</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C 8uF PPCap TH 900V</t>
+  </si>
+  <si>
+    <t>-390.000</t>
+  </si>
+  <si>
+    <t>Condensador de polipropileno PP KEMET, 8µF, ±5%, 900V dc, Montaje en orificio pasante</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C 10uF 0805 MLCC 25V X5R</t>
+  </si>
+  <si>
+    <t>CAPC_0805</t>
+  </si>
+  <si>
+    <t>895.000</t>
+  </si>
+  <si>
+    <t>-400.000</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 10uF 25V X5R +/-10% 0805 Gen Purp</t>
+  </si>
+  <si>
+    <t>C15850</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>885.000</t>
+  </si>
+  <si>
+    <t>-1680.000</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>865.000</t>
+  </si>
+  <si>
+    <t>-2905.000</t>
+  </si>
+  <si>
+    <t>CC1</t>
+  </si>
+  <si>
+    <t>IC CC 30A SO-8</t>
+  </si>
+  <si>
+    <t>CC6303_SOP8</t>
+  </si>
+  <si>
+    <t>935.000</t>
+  </si>
+  <si>
+    <t>-670.000</t>
+  </si>
+  <si>
+    <t>Sensores de Corrente de Montagem de Painel Hall Effect IC LF 30A 66 mV/A</t>
+  </si>
+  <si>
+    <t>C10681</t>
+  </si>
+  <si>
+    <t>CC2</t>
+  </si>
+  <si>
+    <t>915.000</t>
+  </si>
+  <si>
+    <t>-1980.000</t>
+  </si>
+  <si>
+    <t>CC3</t>
+  </si>
+  <si>
+    <t>900.000</t>
+  </si>
+  <si>
+    <t>-3180.236</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>520.000</t>
+  </si>
+  <si>
+    <t>-802.873</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>500.000</t>
+  </si>
+  <si>
+    <t>-2115.000</t>
+  </si>
+  <si>
     <t>U6</t>
   </si>
   <si>
-    <t>P 2p 5mm</t>
-  </si>
-  <si>
-    <t>TopLayer</t>
-  </si>
-  <si>
-    <t>connector1x2_parafuso</t>
-  </si>
-  <si>
-    <t>3645.000</t>
-  </si>
-  <si>
-    <t>-3255.000</t>
-  </si>
-  <si>
-    <t>Bloques de terminales de PCB de perfil estándar RS de 5,0 mm</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>-2453.603</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>3625.000</t>
-  </si>
-  <si>
-    <t>-1676.103</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R 10 5W TH 5%</t>
-  </si>
-  <si>
-    <t>PWR_RESC_5W</t>
-  </si>
-  <si>
-    <t>2720.000</t>
-  </si>
-  <si>
-    <t>-2635.000</t>
-  </si>
-  <si>
-    <t>Resistores de Fio Enrolado - Orifício de Passagem 5W 10 Ohms 5%</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>3010.000</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>3300.000</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>1855.000</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>2142.599</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>2430.000</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>982.598</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>1275.000</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>1565.000</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C 2uF PPCap TH 630V</t>
-  </si>
-  <si>
-    <t>PWR_CAP_PP_2u</t>
-  </si>
-  <si>
-    <t>2795.000</t>
-  </si>
-  <si>
-    <t>-1040.000</t>
-  </si>
-  <si>
-    <t>Capacitores de película 2.0uF 630volts 10% 37.5mmL/S 1.0mmL/D</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>2205.000</t>
-  </si>
-  <si>
-    <t>-1045.000</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>1610.000</t>
-  </si>
-  <si>
-    <t>-1050.000</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C 10uF 0805 MLCC 25V X5R</t>
-  </si>
-  <si>
-    <t>CAPC_0805</t>
-  </si>
-  <si>
-    <t>580.000</t>
-  </si>
-  <si>
-    <t>-1435.000</t>
-  </si>
-  <si>
-    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 10uF 25V X5R +/-10% 0805 Gen Purp</t>
-  </si>
-  <si>
-    <t>C15850</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>600.000</t>
-  </si>
-  <si>
-    <t>-2200.000</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>590.000</t>
-  </si>
-  <si>
-    <t>-2990.000</t>
-  </si>
-  <si>
-    <t>CC1</t>
-  </si>
-  <si>
-    <t>IC CC 30A SO-8</t>
-  </si>
-  <si>
-    <t>CC6303_SOP8</t>
-  </si>
-  <si>
-    <t>585.000</t>
-  </si>
-  <si>
-    <t>-1690.000</t>
-  </si>
-  <si>
-    <t>Sensores de Corrente de Montagem de Painel Hall Effect IC LF 30A 66 mV/A</t>
-  </si>
-  <si>
-    <t>C10681</t>
-  </si>
-  <si>
-    <t>CC2</t>
-  </si>
-  <si>
-    <t>-2465.000</t>
-  </si>
-  <si>
-    <t>CC3</t>
-  </si>
-  <si>
-    <t>-3225.236</t>
+    <t>485.000</t>
+  </si>
+  <si>
+    <t>-3310.000</t>
   </si>
   <si>
     <t>P1</t>
   </si>
   <si>
-    <t>P 8p 2.54 SR DW 3P</t>
-  </si>
-  <si>
-    <t>BottomLayer</t>
-  </si>
-  <si>
-    <t>MOLEX_3p_105431_1103</t>
-  </si>
-  <si>
-    <t>-1300.000</t>
+    <t>P 8p 2.54 SR DW 8P</t>
+  </si>
+  <si>
+    <t>Header_8x1_8.5mm</t>
+  </si>
+  <si>
+    <t>640.000</t>
+  </si>
+  <si>
+    <t>-140.000</t>
   </si>
   <si>
     <t>Distribuidores e Alojamento de Fios CGrid Hrd SRDW THo le 8ckt</t>
@@ -306,37 +315,7 @@
     <t>P2</t>
   </si>
   <si>
-    <t>591.575</t>
-  </si>
-  <si>
-    <t>-2080.000</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>-2875.000</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>149.449</t>
-  </si>
-  <si>
-    <t>-1698.976</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>-2476.476</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>-3253.976</t>
+    <t>-40.000</t>
   </si>
 </sst>
 </file>
@@ -1143,17 +1122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1249,7 +1224,7 @@
         <v>23</v>
       </c>
       <c r="G14">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
@@ -1269,10 +1244,10 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15">
         <v>270</v>
@@ -1283,7 +1258,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1295,10 +1270,10 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>270</v>
@@ -1309,644 +1284,488 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17">
         <v>270</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>270</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>270</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>270</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G21">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G22">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G23">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G24">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G25">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G26">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G27">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="I27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G28">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="I28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G29">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G30">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G31">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35">
-        <v>360</v>
-      </c>
-      <c r="H35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" t="s">
         <v>96</v>
-      </c>
-      <c r="G36">
-        <v>360</v>
-      </c>
-      <c r="H36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37">
-        <v>360</v>
-      </c>
-      <c r="H37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38">
-        <v>90</v>
-      </c>
-      <c r="H38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39">
-        <v>90</v>
-      </c>
-      <c r="H39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40">
-        <v>90</v>
-      </c>
-      <c r="H40" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
